--- a/data/Vaccine profile age_assumptions.xlsx
+++ b/data/Vaccine profile age_assumptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/hassoagopsowiczm_who_int/Documents/AMR/1_Work Streams/VAF/Vaccine profiles &amp; IFA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ivionline-my.sharepoint.com/personal/chaelin_kim_ivi_int/Documents/Documents/GitHub/vaccine_amr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{BB449E5E-4C08-C340-B34F-4BD61F62AC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9737A9E-0714-F94E-A8A5-133B69B13CE3}"/>
   <bookViews>
-    <workbookView xWindow="-33140" yWindow="-500" windowWidth="27400" windowHeight="15860" activeTab="2" xr2:uid="{E3505429-E9FF-3944-B32E-F1BA65C67D7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E3505429-E9FF-3944-B32E-F1BA65C67D7B}"/>
   </bookViews>
   <sheets>
     <sheet name="SIGs" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2998,20 +2998,20 @@
       <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0" style="23" hidden="1" customWidth="1"/>
     <col min="2" max="3" width="54.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="5"/>
-    <col min="5" max="5" width="10.83203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" style="5"/>
+    <col min="5" max="5" width="10.796875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.796875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="32.19921875" style="5" customWidth="1"/>
     <col min="9" max="9" width="22.5" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="20"/>
+    <col min="10" max="16384" width="10.796875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="19" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="19" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>100</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>101</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="109.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>101</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="124.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>102</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="30" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="30" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>102</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>153</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>102</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>102</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="124.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>101</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="109.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>101</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>102</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>102</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="30" customFormat="1" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="30" customFormat="1" ht="93.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>101</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>102</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>102</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>101</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="93.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>101</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>102</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="C19" s="21" t="s">
         <v>199</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="39" customFormat="1" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="39" customFormat="1" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>102</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="39" customFormat="1" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="39" customFormat="1" ht="93.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>102</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>102</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>102</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>102</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>101</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>101</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>102</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="109.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>101</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="30" customFormat="1" ht="153" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="30" customFormat="1" ht="140.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
         <v>102</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>101</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>101</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="109.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>101</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="109.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>101</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
         <v>102</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
         <v>102</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
         <v>101</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
         <v>101</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>101</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
         <v>102</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="140.4" x14ac:dyDescent="0.3">
       <c r="C40" s="21" t="s">
         <v>212</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="109.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
         <v>101</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="93.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
         <v>101</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
         <v>101</v>
       </c>
@@ -4468,50 +4468,50 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>3</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>4</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>5</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>6</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>7</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>89</v>
       </c>
@@ -4589,18 +4589,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H40"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="1" max="1" width="43.69921875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.69921875" customWidth="1"/>
     <col min="7" max="8" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="41" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="41" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>160</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="156" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>248</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="156" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>248</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>310</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="187" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>351</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>312</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>313</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>342</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
         <v>252</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>255</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>259</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="78" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
         <v>347</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
         <v>316</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
         <v>318</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
         <v>337</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="78" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
         <v>263</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
         <v>338</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
         <v>339</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="187" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
         <v>268</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="78" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
         <v>271</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="42" t="s">
         <v>274</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
         <v>332</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="78" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
         <v>277</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
         <v>281</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
         <v>283</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
         <v>320</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
         <v>334</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
         <v>333</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
         <v>286</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="78" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="s">
         <v>340</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A31" s="42" t="s">
         <v>289</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A32" s="42" t="s">
         <v>290</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A33" s="42" t="s">
         <v>344</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="78" x14ac:dyDescent="0.3">
       <c r="A34" s="42" t="s">
         <v>321</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A35" s="42" t="s">
         <v>293</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A36" s="42" t="s">
         <v>348</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="221" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A37" s="42" t="s">
         <v>331</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A38" s="42" t="s">
         <v>349</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A39" s="42" t="s">
         <v>350</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A40" s="42" t="s">
         <v>324</v>
       </c>
@@ -5648,6 +5648,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FED123832FD0488CFCE1AA10E1DCD4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="41a705e68a8aeb9b58d52370ca01447e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a45b7c79-9df6-4e54-8c6e-a05b6926a077" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba608db981251bffcca843424efdcbba" ns3:_="">
     <xsd:import namespace="a45b7c79-9df6-4e54-8c6e-a05b6926a077"/>
@@ -5831,22 +5846,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2737EBF5-6B84-4C51-A2EC-BF7D423E712E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a45b7c79-9df6-4e54-8c6e-a05b6926a077"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949C4874-4D5A-4FE9-8546-A8417F100372}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F71E18D2-388C-40B5-9487-62F8D977B285}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5862,28 +5886,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949C4874-4D5A-4FE9-8546-A8417F100372}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2737EBF5-6B84-4C51-A2EC-BF7D423E712E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a45b7c79-9df6-4e54-8c6e-a05b6926a077"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>